--- a/testing/axe/output/AXE.xlsx
+++ b/testing/axe/output/AXE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -726,12 +726,6 @@
 ]</t>
   </si>
   <si>
-    <t>Total Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: </t>
-  </si>
-  <si>
     <t>[
     {
         "ruleId": "reading-order-browse-outside-modal",
@@ -1146,35 +1140,6 @@
         "testUrl": "http://localhost:3000/react/semantic-ui",
         "foundBy": "vboretskyi@gmail.com"
     },
-]</t>
-  </si>
-  <si>
-    <t>[
-    {
-        "ruleId": "th-has-data-cells",
-        "description": "Ensure that each table header in a data table refers to data cells",
-        "help": "All th elements and elements with role=columnheader/rowheader must have data cells they describe",
-        "helpUrl": "https://dequeuniversity.com/rules/axe/4.2/th-has-data-cells?application=AxeChrome",
-        "needsReview": true,
-        "isManual": false,
-        "selector": [
-            "table"
-        ],
-        "summary": "Fix all of the following:\n  Table data cells are missing or empty",
-        "source": "&lt;table class=\"ui celled table\"&gt;",
-        "tags": [
-            "cat.tables",
-            "wcag2a",
-            "wcag131",
-            "section508",
-            "section508.22.g"
-        ],
-        "igt": "",
-        "shareURL": "",
-        "createdAt": "2021-07-16T17:36:25.104Z",
-        "testUrl": "http://localhost:3000/react/semantic-ui",
-        "foundBy": "vboretskyi@gmail.com"
-    }
 ]</t>
   </si>
   <si>
@@ -1799,56 +1764,6 @@
         "igt": "",
         "shareURL": "",
         "createdAt": "2021-07-16T19:08:21.358Z",
-        "testUrl": "http://localhost:3000/vue/ant-design",
-        "foundBy": "vboretskyi@gmail.com"
-    }
-]</t>
-  </si>
-  <si>
-    <t>[
-    {
-        "ruleId": "aria-allowed-attr",
-        "description": "Ensures ARIA attributes are allowed for an element's role",
-        "help": "Elements must only use allowed ARIA attributes",
-        "helpUrl": "https://dequeuniversity.com/rules/axe/4.3/aria-allowed-attr?application=AxeChrome",
-        "impact": "serious",
-        "isManual": false,
-        "selector": [
-            ".ant-pagination-item-link &gt; .anticon-left.anticon[aria-label=\"icon\\:\\ left\"]"
-        ],
-        "summary": "Fix all of the following:\n  ARIA attribute cannot be used, add a role attribute or use a different element: aria-label",
-        "source": "&lt;i aria-label=\"icon: left\" class=\"anticon anticon-left\"&gt;",
-        "tags": [
-            "cat.aria",
-            "wcag2a",
-            "wcag412"
-        ],
-        "igt": "",
-        "shareURL": "",
-        "createdAt": "2021-07-16T19:08:58.994Z",
-        "testUrl": "http://localhost:3000/vue/ant-design",
-        "foundBy": "vboretskyi@gmail.com"
-    },
-    {
-        "ruleId": "aria-allowed-attr",
-        "description": "Ensures ARIA attributes are allowed for an element's role",
-        "help": "Elements must only use allowed ARIA attributes",
-        "helpUrl": "https://dequeuniversity.com/rules/axe/4.3/aria-allowed-attr?application=AxeChrome",
-        "impact": "serious",
-        "isManual": false,
-        "selector": [
-            ".ant-pagination-item-link &gt; .anticon-right.anticon[aria-label=\"icon\\:\\ right\"]"
-        ],
-        "summary": "Fix all of the following:\n  ARIA attribute cannot be used, add a role attribute or use a different element: aria-label",
-        "source": "&lt;i aria-label=\"icon: right\" class=\"anticon anticon-right\"&gt;",
-        "tags": [
-            "cat.aria",
-            "wcag2a",
-            "wcag412"
-        ],
-        "igt": "",
-        "shareURL": "",
-        "createdAt": "2021-07-16T19:08:58.994Z",
         "testUrl": "http://localhost:3000/vue/ant-design",
         "foundBy": "vboretskyi@gmail.com"
     }
@@ -2916,35 +2831,6 @@
         "igt": "",
         "shareURL": "",
         "createdAt": "2021-07-16T19:34:08.784Z",
-        "testUrl": "http://localhost:3000/vue/element-ui",
-        "foundBy": "vboretskyi@gmail.com"
-    }
-]</t>
-  </si>
-  <si>
-    <t>[
-    {
-        "ruleId": "th-has-data-cells",
-        "description": "Ensure that each table header in a data table refers to data cells",
-        "help": "All th elements and elements with role=columnheader/rowheader must have data cells they describe",
-        "helpUrl": "https://dequeuniversity.com/rules/axe/4.3/th-has-data-cells?application=AxeChrome",
-        "needsReview": true,
-        "isManual": false,
-        "selector": [
-            ".el-table__header"
-        ],
-        "summary": "Fix all of the following:\n  Table data cells are missing or empty",
-        "source": "&lt;table cellspacing=\"0\" cellpadding=\"0\" border=\"0\" class=\"el-table__header\" style=\"width: 528px;\"&gt;",
-        "tags": [
-            "cat.tables",
-            "wcag2a",
-            "wcag131",
-            "section508",
-            "section508.22.g"
-        ],
-        "igt": "",
-        "shareURL": "",
-        "createdAt": "2021-07-16T19:34:54.054Z",
         "testUrl": "http://localhost:3000/vue/element-ui",
         "foundBy": "vboretskyi@gmail.com"
     }
@@ -4948,8 +4834,6 @@
       <b/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -4967,7 +4851,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5001,6 +4885,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -5018,12 +4905,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9546,10 +9427,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -9560,40 +9441,40 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -9618,296 +9499,296 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>0.0</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>0.0</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>3.0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" ht="37.5" customHeight="1">
+      <c r="A19" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -9915,13 +9796,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>29</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -9929,10 +9805,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -13832,10 +13706,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -13846,42 +13720,42 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>2.0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>95</v>
+      <c r="D2" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>0.0</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -13906,286 +13780,286 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>0.0</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>3.0</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>96</v>
+      <c r="D9" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>0.0</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>1.0</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>97</v>
+      <c r="D11" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>0.0</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -14193,13 +14067,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>13</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -14207,10 +14076,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -18110,10 +17977,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -18124,41 +17991,41 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>1.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>99</v>
+      <c r="D4" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -18184,286 +18051,286 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>0.0</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>1.0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>100</v>
+      <c r="D10" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>0.0</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>1.0</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>101</v>
+      <c r="D18" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>3.0</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>102</v>
+      <c r="D25" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25.0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -18471,13 +18338,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>6</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -18485,10 +18347,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -22388,10 +22248,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -22402,41 +22262,41 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>103</v>
+      <c r="D4" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -22462,292 +22322,292 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>4.0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="1">
+      <c r="A10" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" customHeight="1">
+      <c r="A19" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -22755,13 +22615,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>22</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -22769,10 +22624,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -26672,10 +26525,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -26686,41 +26539,41 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>110</v>
+      <c r="D4" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -26746,284 +26599,284 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>2.0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>111</v>
+      <c r="D10" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>1.0</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>112</v>
+      <c r="D14" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>0.0</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>0.0</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>0.0</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>0.0</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25.0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -27031,13 +26884,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>5</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -27045,10 +26893,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -31199,8 +31045,8 @@
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.0</v>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -31292,7 +31138,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -35192,10 +35038,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -35206,40 +35052,40 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>4.0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
@@ -35266,290 +35112,290 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>0.0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>1.0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>1.0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>1.0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>0.0</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>0.0</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>1.0</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>2.0</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>0.0</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -35567,7 +35413,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="16"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -39467,10 +39313,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -39481,40 +39327,40 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="6"/>
@@ -39541,284 +39387,284 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>0.0</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>2.0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>0.0</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>0.0</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>0.0</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>1.0</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>2.0</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
         <v>0.0</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25.0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -39826,13 +39672,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>7</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -39840,10 +39681,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -43743,10 +43582,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -43757,41 +43596,41 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>1.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
+      <c r="D4" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -43817,282 +43656,282 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>1.0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>49</v>
+      <c r="D10" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>0.0</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>0.0</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>0.0</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25.0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -44100,13 +43939,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>2</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -44114,10 +43948,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -48017,10 +47849,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -48031,41 +47863,41 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>0.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>4.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>50</v>
+      <c r="D4" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -48091,292 +47923,290 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>1.0</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="37.5" customHeight="1">
+      <c r="A9" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="1">
+      <c r="A10" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="13" t="s">
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D10" s="13" t="s">
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" ht="37.5" customHeight="1">
+      <c r="A19" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -48384,13 +48214,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>15</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -48398,10 +48223,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -52301,10 +52124,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -52315,45 +52138,45 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>6.0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>57</v>
+      <c r="D2" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>1.0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>58</v>
+      <c r="D3" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>59</v>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -52379,304 +52202,302 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>0.0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>2.0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="1">
+      <c r="A10" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
         <v>1.0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="D16" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" customHeight="1">
+      <c r="A19" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15">
         <v>2.0</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D19" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
         <v>4.0</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -52684,13 +52505,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>32</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -52698,10 +52514,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -56601,10 +56415,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -56615,43 +56429,43 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>2.0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>72</v>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>73</v>
+      <c r="D4" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -56677,282 +56491,282 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>1.0</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>74</v>
+      <c r="D7" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>0.0</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>0.0</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>0.0</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>0.0</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>0.0</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>0.0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>0.0</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>0.0</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>21.0</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>0.0</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>0.0</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>23.0</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>0.0</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24.0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25.0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -56960,13 +56774,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>5</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -56974,10 +56783,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -60877,10 +60684,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -60891,43 +60698,43 @@
       </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>6.0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>75</v>
+      <c r="D2" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>0.0</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>76</v>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -60953,300 +60760,298 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>0.0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>6.0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" ht="37.5" customHeight="1">
+      <c r="A8" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" ht="37.5" customHeight="1">
+      <c r="A9" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="1">
+      <c r="A10" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14">
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
         <v>0.0</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
         <v>3.0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    <row r="19" ht="37.5" customHeight="1">
+      <c r="A19" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="13" t="s">
+    <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="37.5" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+    <row r="26" ht="37.5" customHeight="1">
+      <c r="A26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" ht="37.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" ht="37.5" customHeight="1">
-      <c r="A22" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" ht="37.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="37.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
-      <c r="A27" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -61254,13 +61059,8 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
-        <f>SUM(C2:C26)</f>
-        <v>35</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -61268,10 +61068,8 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
